--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0631422-770E-4D25-970D-CE2233BD098F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7CFA2-B450-4087-A098-7987845431E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="8" r:id="rId1"/>
@@ -18665,6 +18665,743 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6044FE5-B590-4FA4-8213-BEE80BDAE26D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16036637" y="298259"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="3630083"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802BBE06-1A60-48CF-BBCC-806DC5C29366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165560" y="631825"/>
+          <a:ext cx="4688417" cy="3630083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="25600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144496</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>192516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4571123" cy="1068819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6AA598-7FED-4814-938F-832665B301B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16235973" y="3713880"/>
+          <a:ext cx="4571123" cy="1068819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BE4066-F4D0-463F-BB34-8D8579B72068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16085724" y="158754"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C40A6A-AF82-492C-B14D-3405A2CB97D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16036637" y="5537009"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54552</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="3630083"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A015AAB-561F-4227-BA9A-214BDC929CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165560" y="5870575"/>
+          <a:ext cx="4688417" cy="3630083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="25600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>144496</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>192516</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4571123" cy="1068819"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBE6513-8CB8-4BAA-B2F9-3F40EFB856A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16235973" y="8952630"/>
+          <a:ext cx="4571123" cy="1068819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Power</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> AI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+              <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+            </a:blipFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158754</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C56958A-463F-4F58-A20C-670DD3D60528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16085724" y="5397504"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6600" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6600" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>198197</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>520506</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>243417</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="&quot;禁止&quot;マーク 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861A98B5-64F1-475E-A5F8-CDE13C7775D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16982402" y="6294198"/>
+          <a:ext cx="3093218" cy="3190489"/>
+        </a:xfrm>
+        <a:prstGeom prst="noSmoking">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12706"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D60093"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>321995</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4215769" cy="2587888"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC9E73F-515C-45B3-8CAE-B0C29D435A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16413472" y="1241138"/>
+          <a:ext cx="4215769" cy="2587888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="13800" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>REC</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="13800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18965,9 +19702,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -19005,7 +19742,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -19111,7 +19848,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19253,7 +19990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -20521,8 +21258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
   <dimension ref="B2:AI102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AQ74" sqref="AQ74"/>
+    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AO68" sqref="AO68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23433,10 +24170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717500BE-C8E0-43F5-9FE7-5C046546F916}">
-  <dimension ref="B2:AI43"/>
+  <dimension ref="B2:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AL3:AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23449,9 +24186,11 @@
     <col min="27" max="27" width="2.5" customWidth="1"/>
     <col min="28" max="28" width="3.125" customWidth="1"/>
     <col min="36" max="36" width="2.5" customWidth="1"/>
+    <col min="37" max="37" width="3.125" customWidth="1"/>
+    <col min="45" max="45" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -23480,8 +24219,15 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+    </row>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -23510,8 +24256,15 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -23540,8 +24293,15 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -23570,8 +24330,15 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -23600,8 +24367,15 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -23630,8 +24404,15 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -23660,8 +24441,15 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -23690,8 +24478,15 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -23720,8 +24515,15 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -23750,8 +24552,15 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -23780,8 +24589,15 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -23810,8 +24626,15 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -23840,8 +24663,15 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -23870,8 +24700,15 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -23900,8 +24737,15 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+    </row>
+    <row r="17" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -23930,8 +24774,15 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+    </row>
+    <row r="18" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -23960,8 +24811,15 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+    </row>
+    <row r="19" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -23990,8 +24848,15 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+    </row>
+    <row r="20" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -24020,8 +24885,15 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="21" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -24050,8 +24922,15 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-    </row>
-    <row r="24" spans="2:35" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+    </row>
+    <row r="24" spans="2:44" ht="6.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -24080,8 +24959,15 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-    </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+    </row>
+    <row r="25" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -24110,8 +24996,15 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+    </row>
+    <row r="26" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -24140,8 +25033,15 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+    </row>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -24170,8 +25070,15 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+    </row>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -24200,8 +25107,15 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-    </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+    </row>
+    <row r="29" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -24230,8 +25144,15 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
-    </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+    </row>
+    <row r="30" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -24260,8 +25181,15 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
-    </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+    </row>
+    <row r="31" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -24290,8 +25218,15 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
-    </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+    </row>
+    <row r="32" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -24320,8 +25255,15 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+    </row>
+    <row r="33" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -24350,8 +25292,15 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -24380,8 +25329,15 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+    </row>
+    <row r="35" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -24410,8 +25366,15 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+    </row>
+    <row r="36" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -24440,8 +25403,15 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+    </row>
+    <row r="37" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -24470,8 +25440,15 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -24500,8 +25477,15 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+    </row>
+    <row r="39" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -24530,8 +25514,15 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+    </row>
+    <row r="40" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -24560,8 +25551,15 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+    </row>
+    <row r="41" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -24590,8 +25588,15 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+    </row>
+    <row r="42" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -24620,8 +25625,15 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+    </row>
+    <row r="43" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -24650,6 +25662,13 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -25906,19 +26925,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="C10:D10"/>
@@ -25933,63 +26996,19 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26688,6 +27707,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
@@ -26700,25 +27738,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE7CFA2-B450-4087-A098-7987845431E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07E5C1-E289-4D07-A4B1-328F7595B315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="8" r:id="rId1"/>
@@ -15272,7 +15272,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10715626" y="14574211"/>
+          <a:off x="10733241" y="19067923"/>
           <a:ext cx="4952999" cy="4493106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15778,6 +15778,953 @@
             <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>81782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF8CF30-FE3C-417F-AF6B-82237BAD6690}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15825878" y="18952065"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>81779</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4988598" cy="4530150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE623950-3017-4FDF-95DE-4DD2906CF5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="190501" y="18952062"/>
+          <a:ext cx="4988598" cy="4530150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>184437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777B5FEF-8C13-4381-A547-68BACCB8BAE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="307715" y="19288352"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>129890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCC2EA7-2E9F-4121-B976-3E446920C451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="19000173"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>126710</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D49372-4778-413C-8813-24EE28BCC916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15943092" y="19230625"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A815951-2BBB-4C78-83A2-699EEB715B9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15874965" y="18899152"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C301CCD-5C72-4FE6-8129-1CF0C668C27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10614086" y="18966494"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>112277</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E000FA-F7B9-429A-A572-61894768900E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10731300" y="19216192"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD054A00-DDEE-4305-AD1E-F553D81118A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10663173" y="18899151"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781ADB69-C0FC-4CA0-91B0-99D4FB1366CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5402293" y="18966494"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149265</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>236102</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3361275" cy="3660486"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="グラフィックス 74" descr="コール センター">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED990BAE-14C3-4C33-9963-DF50B6F4834D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6277614" y="19573649"/>
+          <a:ext cx="3361275" cy="3660486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>170003</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D776B5A7-D67F-4F73-B1CE-5974AB85A9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5519508" y="19273918"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>72162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DD02B3-5B17-4ACF-A8A7-CC1740493D0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5451380" y="18942445"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186176</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5181019" cy="2859757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3DF84D-92C0-4FC6-92A1-8BECC6101E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200280" y="20740635"/>
+          <a:ext cx="5181019" cy="2859757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="16600" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>169623</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>628</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5339773" cy="3563476"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5161AF1-9405-4B27-A82F-B3305DCEDA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10516644" y="20146655"/>
+          <a:ext cx="5339773" cy="3563476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="18000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>文殊</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21256,10 +22203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
-  <dimension ref="B2:AI102"/>
+  <dimension ref="B2:AI122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO68" sqref="AO68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="S83" sqref="S83:Z101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24160,6 +25107,564 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
+    <row r="103" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+    </row>
+    <row r="104" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+    </row>
+    <row r="105" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+    </row>
+    <row r="106" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+    </row>
+    <row r="107" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+    </row>
+    <row r="108" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+    </row>
+    <row r="109" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+    </row>
+    <row r="110" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+    </row>
+    <row r="111" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+    </row>
+    <row r="112" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+    </row>
+    <row r="113" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+    </row>
+    <row r="114" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+    </row>
+    <row r="115" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+    </row>
+    <row r="116" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+    </row>
+    <row r="117" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+    </row>
+    <row r="118" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+    </row>
+    <row r="119" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+    </row>
+    <row r="120" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+    </row>
+    <row r="121" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+    </row>
+    <row r="122" spans="2:35" x14ac:dyDescent="0.4">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24172,7 +25677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717500BE-C8E0-43F5-9FE7-5C046546F916}">
   <dimension ref="B2:AR43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="66" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="66" workbookViewId="0">
       <selection activeCell="AR20" sqref="AL3:AR20"/>
     </sheetView>
   </sheetViews>
@@ -26925,36 +28430,46 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="N22:O22"/>
@@ -26969,46 +28484,36 @@
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="T27:U27"/>
     <mergeCell ref="T28:U28"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27707,13 +29212,18 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -27726,18 +29236,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07E5C1-E289-4D07-A4B1-328F7595B315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C86457E-77B6-4C13-B994-35A3A95A8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -16730,6 +16730,176 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182671</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="1051727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96FAB83-4E24-47A2-8E0C-B6BCAEE7AACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182671" y="27204966"/>
+          <a:ext cx="4971267" cy="1051727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Monjyu</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65241</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>221808</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3770856" cy="3692573"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCA5016-A6ED-4E53-9F9A-ECCBA0B7F2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65241" y="23890781"/>
+          <a:ext cx="3770856" cy="3692573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25900" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378391</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1839760" cy="1539656"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB72BBB7-855C-4971-86D0-7CE1E86836EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3379418" y="25939315"/>
+          <a:ext cx="1839760" cy="1539656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="10400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>殊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22205,8 +22375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
   <dimension ref="B2:AI122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S83" sqref="S83:Z101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
